--- a/term1/Software Systems Development 1/6710301007_Darunpop.xlsx
+++ b/term1/Software Systems Development 1/6710301007_Darunpop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pongkarm/CDTI_work/CDTI_work_68/term1/Software Systems Development 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{481369E7-8A49-FA45-9A41-B345286ED26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6C1390-1B82-DB43-83BD-9393595358F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" firstSheet="1" activeTab="1" xr2:uid="{78813535-9735-4F0B-911F-505D9B0F7E3C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16980" firstSheet="1" activeTab="1" xr2:uid="{78813535-9735-4F0B-911F-505D9B0F7E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -1217,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53E21F5-A5BF-40F9-959A-A89147D01387}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="20"/>
@@ -1714,7 +1714,7 @@
         <v>90</v>
       </c>
       <c r="I16" s="13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>91</v>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E16" t="b">
         <f>ข้อสอบ!I16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="21" t="str">
         <f t="shared" si="0"/>
